--- a/8/4/Deuda Externa (Resumen) 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/Deuda Externa (Resumen) 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Serie</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2745,28 +2748,57 @@
         <v>81</v>
       </c>
       <c r="B74">
-        <v>210956</v>
+        <v>209510</v>
       </c>
       <c r="C74">
-        <v>33757</v>
+        <v>33754</v>
       </c>
       <c r="D74">
         <v>1502</v>
       </c>
       <c r="E74">
-        <v>24764</v>
+        <v>24767</v>
       </c>
       <c r="F74">
-        <v>2167</v>
+        <v>2125</v>
       </c>
       <c r="G74">
-        <v>90433</v>
+        <v>90203</v>
       </c>
       <c r="H74">
-        <v>58333</v>
+        <v>57157</v>
       </c>
       <c r="I74">
-        <v>207155</v>
+        <v>205567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75">
+        <v>213283</v>
+      </c>
+      <c r="C75">
+        <v>37860</v>
+      </c>
+      <c r="D75">
+        <v>1265</v>
+      </c>
+      <c r="E75">
+        <v>24276</v>
+      </c>
+      <c r="F75">
+        <v>2081</v>
+      </c>
+      <c r="G75">
+        <v>91116</v>
+      </c>
+      <c r="H75">
+        <v>56685</v>
+      </c>
+      <c r="I75">
+        <v>209472</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/Deuda Externa (Resumen) 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/Deuda Externa (Resumen) 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Serie</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2801,6 +2804,35 @@
         <v>209472</v>
       </c>
     </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <v>233155</v>
+      </c>
+      <c r="C76">
+        <v>44254</v>
+      </c>
+      <c r="D76">
+        <v>3604</v>
+      </c>
+      <c r="E76">
+        <v>27333</v>
+      </c>
+      <c r="F76">
+        <v>2196</v>
+      </c>
+      <c r="G76">
+        <v>98846</v>
+      </c>
+      <c r="H76">
+        <v>56921</v>
+      </c>
+      <c r="I76">
+        <v>231266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
